--- a/biology/Botanique/Juniperus_turbinata/Juniperus_turbinata.xlsx
+++ b/biology/Botanique/Juniperus_turbinata/Juniperus_turbinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genévrier turbiné, Genévrier méditerranéen
 Juniperus turbinata, le Genévrier turbiné ou Genévrier méditerranéen, est une espèce de Conifères de la famille des Cupressaceae, endémique de la région méditerranéenne.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juniperus turbinata est un grand arbuste, ou un petit arbre, d'une hauteur de 8 à 12 m. L'espèce diffère de Juniperus phoenicea (le Genévrier de Phénicie, dont elle est parfois considéré comme une sous-espèce, sous le nom Juniperus phoenicea subsp. turbinata) essentiellement par un cône plus large. Les différences morphologiques, isoenzymatiques et génétiques ont permis de déterminer les aires de répartition des deux espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juniperus turbinata est un grand arbuste, ou un petit arbre, d'une hauteur de 8 à 12 m. L'espèce diffère de Juniperus phoenicea (le Genévrier de Phénicie, dont elle est parfois considéré comme une sous-espèce, sous le nom Juniperus phoenicea subsp. turbinata) essentiellement par un cône plus large. Les différences morphologiques, isoenzymatiques et génétiques ont permis de déterminer les aires de répartition des deux espèces.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est indigène dans la majorité des pays bordant la Méditerranée (tandis que Juniperus phoenicea se limite aux côtes nord-ouest[1]) : France (Corse et côte continentale), Grèce, Italie (dont Sardaigne et Sicile), Maroc, Portugal (dont Algarve, Estremadura), Espagne (Canaries, Baléares et côte continentale), Tunisie[2], ex-Yougoslavie, Chypre, Algérie, Lybie, Turquie et nord de la péninsule arabique[3]. La zone d'occupation est estimée à moins de 2 000 km2 et, bien que largement distribuées le long des côtes de la Méditerranée, les sous-populations sont dispersées et généralement petites. La tendance générale de la population est inconnue selon l'UICN  (17 janvier 2024)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est indigène dans la majorité des pays bordant la Méditerranée (tandis que Juniperus phoenicea se limite aux côtes nord-ouest) : France (Corse et côte continentale), Grèce, Italie (dont Sardaigne et Sicile), Maroc, Portugal (dont Algarve, Estremadura), Espagne (Canaries, Baléares et côte continentale), Tunisie, ex-Yougoslavie, Chypre, Algérie, Lybie, Turquie et nord de la péninsule arabique. La zone d'occupation est estimée à moins de 2 000 km2 et, bien que largement distribuées le long des côtes de la Méditerranée, les sous-populations sont dispersées et généralement petites. La tendance générale de la population est inconnue selon l'UICN  (17 janvier 2024).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est limitée aux habitats maritimes littoraux, sur les rochers ou les dunes de sable[2]. C'est une espèce caractéristique des dunes côtières brunes couvertes naturellement ou quasi naturellement de pins thermophiles, des bois de Juniperus phoenicea, des fourrés à Genévrier de Phénicie, des matorrals arborescents à Juniperus lycia. C'est également une espèce indicatrice des junipéraies littorales à Genévrier à gros fruits, des junipéraies littorales à Genévrier turbiné de France continentale, des yeuseraies à Genévrier de Phénicie des falaises continentales, des peuplements littoraux de Pin d'Alep et Genévriers de Phénicie sur sables ou rochers, et des garrigues et pré-maquis des falaises littorales thermo-méditerranéennes de la Corse[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est limitée aux habitats maritimes littoraux, sur les rochers ou les dunes de sable. C'est une espèce caractéristique des dunes côtières brunes couvertes naturellement ou quasi naturellement de pins thermophiles, des bois de Juniperus phoenicea, des fourrés à Genévrier de Phénicie, des matorrals arborescents à Juniperus lycia. C'est également une espèce indicatrice des junipéraies littorales à Genévrier à gros fruits, des junipéraies littorales à Genévrier turbiné de France continentale, des yeuseraies à Genévrier de Phénicie des falaises continentales, des peuplements littoraux de Pin d'Alep et Genévriers de Phénicie sur sables ou rochers, et des garrigues et pré-maquis des falaises littorales thermo-méditerranéennes de la Corse.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Genévrier turbiné est considéré comme une « espèce quasi menacée » (NT) par l'UICN  (17 janvier 2024)[2]. Son habitat est menacé, en particulier dans les régions côtières où le tourisme est très développé, comme le sud de l'Espagne. Le tourisme a sans aucun doute conduit à un déclin des sous-populations, bien que généralement aucun taux de perte n'a été enregistré. Cette perte d'habitat est irréversible, mais le rythme de construction et d'aménagement des terrains de golf, etc. se serait ralenti. Le déclin de l'espèce a donc également ralenti ou s'est plus ou moins arrêté, mais, en raison de la large répartition des localités, aucune vision d'ensemble n'est disponible[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Genévrier turbiné est considéré comme une « espèce quasi menacée » (NT) par l'UICN  (17 janvier 2024). Son habitat est menacé, en particulier dans les régions côtières où le tourisme est très développé, comme le sud de l'Espagne. Le tourisme a sans aucun doute conduit à un déclin des sous-populations, bien que généralement aucun taux de perte n'a été enregistré. Cette perte d'habitat est irréversible, mais le rythme de construction et d'aménagement des terrains de golf, etc. se serait ralenti. Le déclin de l'espèce a donc également ralenti ou s'est plus ou moins arrêté, mais, en raison de la large répartition des localités, aucune vision d'ensemble n'est disponible.
 </t>
         </is>
       </c>
@@ -636,10 +656,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en premier en 1844 dans le genre Juniperus sous le basionyme Juniperus turbinata, par le botaniste italien Giovanni Gussone[5]. Elle est selon certaines sources[6],[7],[8] considérée comme une sous-espèce de Juniperus phoenicea. Elle est nommée en français « Genévrier turbiné[4] » ou « Genévrier méditerranéen[9] ».
-Juniperus turbinata a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en premier en 1844 dans le genre Juniperus sous le basionyme Juniperus turbinata, par le botaniste italien Giovanni Gussone. Elle est selon certaines sources considérée comme une sous-espèce de Juniperus phoenicea. Elle est nommée en français « Genévrier turbiné » ou « Genévrier méditerranéen ».
+Juniperus turbinata a pour synonymes :
 (homotypiques)
 Juniperus phoenicea var. turbinata (Guss.) Parl. in A.P.de Candolle, Prodr. 16(2): 487 (1868)
 Juniperus phoenicea subsp. turbinata (Guss.) Nyman in Consp. Fl. Eur.: 676 (1881)
